--- a/ArticleManage/main_working_folder/output_folders/Data 115 Activated carbon materials with/Data115_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 115 Activated carbon materials with/Data115_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="CAC1800" sheetId="1" r:id="rId1"/>
-    <sheet name="CAC1900" sheetId="2" r:id="rId4"/>
-    <sheet name="CAC3800" sheetId="3" r:id="rId5"/>
-    <sheet name="CAC6800" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 CAC1800  0-1-0-14 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CAC1900  0-1-0-14 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 CAC3800  0-1-0-14 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 CAC6800  0-1-0-14 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC1800</a:t>
+              <a:t>Izoterma adsorpcji probki CAC1800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CAC1800!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CAC1800  0-1-0-14 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CAC1800!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CAC1800  0-1-0-14 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC1900</a:t>
+              <a:t>Izoterma adsorpcji probki CAC1900 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CAC1900!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CAC1900  0-1-0-14 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CAC1900!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CAC1900  0-1-0-14 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC3800</a:t>
+              <a:t>Izoterma adsorpcji probki CAC3800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CAC3800!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CAC3800  0-1-0-14 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CAC3800!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CAC3800  0-1-0-14 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki CAC6800</a:t>
+              <a:t>Izoterma adsorpcji probki CAC6800 z wykresu 'Figure 1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CAC6800!$A$3:$A$50</c:f>
+              <c:f>'Figure 1 CAC6800  0-1-0-14 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CAC6800!$B$3:$B$50</c:f>
+              <c:f>'Figure 1 CAC6800  0-1-0-14 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 115 Activated carbon materials with/Data115_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 115 Activated carbon materials with/Data115_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4034,341 +4034,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0101</v>
+        <v>0.9964</v>
       </c>
       <c r="B3" s="0">
-        <v>0.9858</v>
+        <v>1.9199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0423</v>
+        <v>0.9581</v>
       </c>
       <c r="B4" s="0">
-        <v>1.3497</v>
+        <v>1.8753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0792</v>
+        <v>0.9208</v>
       </c>
       <c r="B5" s="0">
-        <v>1.455</v>
+        <v>1.8488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.113</v>
+        <v>0.8727</v>
       </c>
       <c r="B6" s="0">
-        <v>1.5217</v>
+        <v>1.8497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1478</v>
+        <v>0.8214</v>
       </c>
       <c r="B7" s="0">
-        <v>1.6059</v>
+        <v>1.8234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1795</v>
+        <v>0.7697</v>
       </c>
       <c r="B8" s="0">
-        <v>1.6562</v>
+        <v>1.8062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.4075</v>
+        <v>0.7133</v>
       </c>
       <c r="B9" s="0">
-        <v>1.6963</v>
+        <v>1.8073</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.4235</v>
+        <v>0.6682</v>
       </c>
       <c r="B10" s="0">
-        <v>1.6904</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.5711</v>
+        <v>0.6216</v>
       </c>
       <c r="B11" s="0">
-        <v>1.7018</v>
+        <v>1.7818</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.7579</v>
+        <v>0.573</v>
       </c>
       <c r="B12" s="0">
-        <v>1.7712</v>
+        <v>1.7645</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7769</v>
+        <v>0.5217</v>
       </c>
       <c r="B13" s="0">
-        <v>1.7735</v>
+        <v>1.7564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.8204</v>
+        <v>0.4695</v>
       </c>
       <c r="B14" s="0">
-        <v>1.8</v>
+        <v>1.7483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8688</v>
+        <v>0.4151</v>
       </c>
       <c r="B15" s="0">
-        <v>1.8029</v>
+        <v>1.7402</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9315</v>
+        <v>0.3582</v>
       </c>
       <c r="B16" s="0">
-        <v>1.8433</v>
+        <v>1.7412</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1656</v>
+        <v>0.3168</v>
       </c>
       <c r="B17" s="0">
-        <v>1.6451</v>
+        <v>1.7329</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1315</v>
+        <v>0.2572</v>
       </c>
       <c r="B18" s="0">
-        <v>1.5733</v>
+        <v>1.7069</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0932</v>
+        <v>0.2122</v>
       </c>
       <c r="B19" s="0">
-        <v>1.5015</v>
+        <v>1.7167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.058</v>
+        <v>0.1832</v>
       </c>
       <c r="B20" s="0">
-        <v>1.466</v>
+        <v>1.7173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.029</v>
+        <v>0.1573</v>
       </c>
       <c r="B21" s="0">
-        <v>1.2673</v>
+        <v>1.6724</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0166</v>
+        <v>0.131</v>
       </c>
       <c r="B22" s="0">
-        <v>1.195</v>
+        <v>1.5914</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2029</v>
+        <v>0.103</v>
       </c>
       <c r="B23" s="0">
-        <v>1.6807</v>
+        <v>1.5195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2215</v>
+        <v>0.0745</v>
       </c>
       <c r="B24" s="0">
-        <v>1.6803</v>
+        <v>1.5019</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.2474</v>
+        <v>0.0492</v>
       </c>
       <c r="B25" s="0">
-        <v>1.7161</v>
+        <v>1.4571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.266</v>
+        <v>0.0424</v>
       </c>
       <c r="B26" s="0">
-        <v>1.6976</v>
+        <v>1.3938</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3085</v>
+        <v>0.0305</v>
       </c>
       <c r="B27" s="0">
-        <v>1.6969</v>
+        <v>1.231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3251</v>
+        <v>0.0212</v>
       </c>
       <c r="B28" s="0">
-        <v>1.7147</v>
+        <v>1.2221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9503</v>
+        <v>0.0135</v>
       </c>
       <c r="B29" s="0">
-        <v>1.8482</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9907</v>
-      </c>
-      <c r="B30" s="0">
-        <v>1.9019</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.911</v>
-      </c>
-      <c r="B31" s="0">
-        <v>1.8308</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.881</v>
-      </c>
-      <c r="B32" s="0">
-        <v>1.8314</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.3675</v>
-      </c>
-      <c r="B33" s="0">
-        <v>1.732</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.3489</v>
-      </c>
-      <c r="B34" s="0">
-        <v>1.7143</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.5311</v>
-      </c>
-      <c r="B35" s="0">
-        <v>1.7291</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.5124</v>
-      </c>
-      <c r="B36" s="0">
-        <v>1.7475</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.4793</v>
-      </c>
-      <c r="B37" s="0">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.4596</v>
-      </c>
-      <c r="B38" s="0">
-        <v>1.7122</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.6128</v>
-      </c>
-      <c r="B39" s="0">
-        <v>1.7457</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.6315</v>
-      </c>
-      <c r="B40" s="0">
-        <v>1.7454</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.6584</v>
-      </c>
-      <c r="B41" s="0">
-        <v>1.7268</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.6781</v>
-      </c>
-      <c r="B42" s="0">
-        <v>1.7445</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7226</v>
-      </c>
-      <c r="B43" s="0">
-        <v>1.7618</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.706</v>
-      </c>
-      <c r="B44" s="0">
-        <v>1.7621</v>
-      </c>
-    </row>
-    <row r="45"/>
+        <v>1.1589</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4377,7 +4257,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4398,317 +4278,261 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0359</v>
+        <v>0.9969</v>
       </c>
       <c r="B3" s="0">
-        <v>4.0205</v>
+        <v>5.1889</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0586</v>
+        <v>0.9705</v>
       </c>
       <c r="B4" s="0">
-        <v>4.221</v>
+        <v>4.9721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0868</v>
+        <v>0.9322</v>
       </c>
       <c r="B5" s="0">
-        <v>4.3965</v>
+        <v>4.9456</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1107</v>
+        <v>0.8665</v>
       </c>
       <c r="B6" s="0">
-        <v>4.4779</v>
+        <v>4.9377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1354</v>
+        <v>0.8214</v>
       </c>
       <c r="B7" s="0">
-        <v>4.5433</v>
+        <v>4.9114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1616</v>
+        <v>0.7624</v>
       </c>
       <c r="B8" s="0">
-        <v>4.5966</v>
+        <v>4.9034</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1878</v>
+        <v>0.7138</v>
       </c>
       <c r="B9" s="0">
-        <v>4.6331</v>
+        <v>4.8952</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2112</v>
+        <v>0.6713</v>
       </c>
       <c r="B10" s="0">
-        <v>4.6589</v>
+        <v>4.8779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2488</v>
+        <v>0.6206</v>
       </c>
       <c r="B11" s="0">
-        <v>4.6958</v>
+        <v>4.8607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2688</v>
+        <v>0.5647</v>
       </c>
       <c r="B12" s="0">
-        <v>4.7205</v>
+        <v>4.8345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3013</v>
+        <v>0.5202</v>
       </c>
       <c r="B13" s="0">
-        <v>4.706</v>
+        <v>4.8353</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3157</v>
+        <v>0.4684</v>
       </c>
       <c r="B14" s="0">
-        <v>4.7369</v>
+        <v>4.8091</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3519</v>
+        <v>0.4182</v>
       </c>
       <c r="B15" s="0">
-        <v>4.7329</v>
+        <v>4.801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3741</v>
+        <v>0.3623</v>
       </c>
       <c r="B16" s="0">
-        <v>4.7696</v>
+        <v>4.7658</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.4081</v>
+        <v>0.309</v>
       </c>
       <c r="B17" s="0">
-        <v>4.763</v>
+        <v>4.7486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4296</v>
+        <v>0.2588</v>
       </c>
       <c r="B18" s="0">
-        <v>4.7658</v>
+        <v>4.7133</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4614</v>
+        <v>0.2117</v>
       </c>
       <c r="B19" s="0">
-        <v>4.8002</v>
+        <v>4.6689</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4798</v>
+        <v>0.1858</v>
       </c>
       <c r="B20" s="0">
-        <v>4.8306</v>
+        <v>4.6422</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.5137</v>
+        <v>0.1594</v>
       </c>
       <c r="B21" s="0">
-        <v>4.8097</v>
+        <v>4.6064</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.5321</v>
+        <v>0.131</v>
       </c>
       <c r="B22" s="0">
-        <v>4.8255</v>
+        <v>4.5526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5628</v>
+        <v>0.0994</v>
       </c>
       <c r="B23" s="0">
-        <v>4.8289</v>
+        <v>4.4717</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5842</v>
+        <v>0.0807</v>
       </c>
       <c r="B24" s="0">
-        <v>4.8359</v>
+        <v>4.3905</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.6194</v>
+        <v>0.0497</v>
       </c>
       <c r="B25" s="0">
-        <v>4.8241</v>
+        <v>4.1828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6484</v>
+        <v>0.0399</v>
       </c>
       <c r="B26" s="0">
-        <v>4.8779</v>
+        <v>4.1015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6727</v>
+        <v>0.0311</v>
       </c>
       <c r="B27" s="0">
-        <v>4.8572</v>
+        <v>3.993</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.702</v>
+        <v>0.0243</v>
       </c>
       <c r="B28" s="0">
-        <v>4.861</v>
+        <v>3.8935</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.7242</v>
+        <v>0.0192</v>
       </c>
       <c r="B29" s="0">
-        <v>4.8901</v>
+        <v>3.794</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7569</v>
+        <v>0.0098</v>
       </c>
       <c r="B30" s="0">
-        <v>4.8878</v>
+        <v>3.5406</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7763</v>
+        <v>0.0062</v>
       </c>
       <c r="B31" s="0">
-        <v>4.9074</v>
+        <v>3.278</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.807</v>
+        <v>0.0041</v>
       </c>
       <c r="B32" s="0">
-        <v>4.8856</v>
+        <v>2.9883</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.829</v>
+        <v>0.0031</v>
       </c>
       <c r="B33" s="0">
-        <v>4.892</v>
+        <v>1.9741</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8613</v>
+        <v>0.0031</v>
       </c>
       <c r="B34" s="0">
-        <v>4.9193</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.883</v>
-      </c>
-      <c r="B35" s="0">
-        <v>4.919</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9117</v>
-      </c>
-      <c r="B36" s="0">
-        <v>4.9446</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9371</v>
-      </c>
-      <c r="B37" s="0">
-        <v>4.901</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9632</v>
-      </c>
-      <c r="B38" s="0">
-        <v>4.948</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9883</v>
-      </c>
-      <c r="B39" s="0">
-        <v>5.1293</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.0259</v>
-      </c>
-      <c r="B40" s="0">
-        <v>3.8753</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.0145</v>
-      </c>
-      <c r="B41" s="0">
-        <v>3.6582</v>
-      </c>
-    </row>
-    <row r="42"/>
+        <v>1.0142</v>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4717,7 +4541,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4738,413 +4562,221 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0086</v>
+        <v>0.9959</v>
       </c>
       <c r="B3" s="0">
-        <v>5.6101</v>
+        <v>7.5344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0041</v>
+        <v>0.9664</v>
       </c>
       <c r="B4" s="0">
-        <v>4.5717</v>
+        <v>7.3628</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0041</v>
+        <v>0.9182</v>
       </c>
       <c r="B5" s="0">
-        <v>3.8056</v>
+        <v>7.3547</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0041</v>
+        <v>0.8747</v>
       </c>
       <c r="B6" s="0">
-        <v>2.3306</v>
+        <v>7.3283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0041</v>
+        <v>0.8204</v>
       </c>
       <c r="B7" s="0">
-        <v>1.5772</v>
+        <v>7.3202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0059</v>
+        <v>0.765</v>
       </c>
       <c r="B8" s="0">
-        <v>0.81</v>
+        <v>7.285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0323</v>
+        <v>0.6672</v>
       </c>
       <c r="B9" s="0">
-        <v>6.2937</v>
+        <v>7.2415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0607</v>
+        <v>0.5694</v>
       </c>
       <c r="B10" s="0">
-        <v>6.5495</v>
+        <v>7.1799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0909</v>
+        <v>0.4633</v>
       </c>
       <c r="B11" s="0">
-        <v>6.6806</v>
+        <v>7.1274</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1244</v>
+        <v>0.3592</v>
       </c>
       <c r="B12" s="0">
-        <v>6.7806</v>
+        <v>7.0569</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1514</v>
+        <v>0.2578</v>
       </c>
       <c r="B13" s="0">
-        <v>6.8318</v>
+        <v>6.9772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.18</v>
+        <v>0.1843</v>
       </c>
       <c r="B14" s="0">
-        <v>6.8692</v>
+        <v>6.888</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.232</v>
+        <v>0.1568</v>
       </c>
       <c r="B15" s="0">
-        <v>6.9387</v>
+        <v>6.8523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3466</v>
+        <v>0.1284</v>
       </c>
       <c r="B16" s="0">
-        <v>7.036</v>
+        <v>6.8075</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3757</v>
+        <v>0.0978</v>
       </c>
       <c r="B17" s="0">
-        <v>7.0564</v>
+        <v>6.7266</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4302</v>
+        <v>0.0761</v>
       </c>
       <c r="B18" s="0">
-        <v>7.0911</v>
+        <v>6.6545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.5774</v>
+        <v>0.0502</v>
       </c>
       <c r="B19" s="0">
-        <v>7.1749</v>
+        <v>6.492</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.6064</v>
+        <v>0.0393</v>
       </c>
       <c r="B20" s="0">
-        <v>7.1767</v>
+        <v>6.4107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.6355</v>
+        <v>0.029</v>
       </c>
       <c r="B21" s="0">
-        <v>7.2146</v>
+        <v>6.2841</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.6646</v>
+        <v>0.0202</v>
       </c>
       <c r="B22" s="0">
-        <v>7.228</v>
+        <v>6.1303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.6936</v>
+        <v>0.0088</v>
       </c>
       <c r="B23" s="0">
-        <v>7.2453</v>
+        <v>5.8045</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.72</v>
+        <v>0.0041</v>
       </c>
       <c r="B24" s="0">
-        <v>7.2558</v>
+        <v>5.5148</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.7672</v>
+        <v>0.0031</v>
       </c>
       <c r="B25" s="0">
-        <v>7.2709</v>
+        <v>5.3156</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.8226</v>
+        <v>0.0021</v>
       </c>
       <c r="B26" s="0">
-        <v>7.3029</v>
+        <v>4.564</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.8797</v>
+        <v>0.0016</v>
       </c>
       <c r="B27" s="0">
-        <v>7.3257</v>
+        <v>3.8124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.918</v>
+        <v>0.0016</v>
       </c>
       <c r="B28" s="0">
-        <v>7.3525</v>
+        <v>2.3273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.9948</v>
+        <v>0.0016</v>
       </c>
       <c r="B29" s="0">
-        <v>7.4982</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9669</v>
-      </c>
-      <c r="B30" s="0">
-        <v>7.3538</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.8665</v>
-      </c>
-      <c r="B31" s="0">
-        <v>7.3013</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.8095</v>
-      </c>
-      <c r="B32" s="0">
-        <v>7.2842</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.4524</v>
-      </c>
-      <c r="B33" s="0">
-        <v>7.1095</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.4731</v>
-      </c>
-      <c r="B34" s="0">
-        <v>7.1092</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.5611</v>
-      </c>
-      <c r="B35" s="0">
-        <v>7.1619</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.2495</v>
-      </c>
-      <c r="B36" s="0">
-        <v>6.9683</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.2681</v>
-      </c>
-      <c r="B37" s="0">
-        <v>6.968</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.3012</v>
-      </c>
-      <c r="B38" s="0">
-        <v>6.9855</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.3178</v>
-      </c>
-      <c r="B39" s="0">
-        <v>7.0214</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.3986</v>
-      </c>
-      <c r="B40" s="0">
-        <v>7.0743</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.4203</v>
-      </c>
-      <c r="B41" s="0">
-        <v>7.0739</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.5052</v>
-      </c>
-      <c r="B42" s="0">
-        <v>7.1267</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.5248</v>
-      </c>
-      <c r="B43" s="0">
-        <v>7.1444</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.5983</v>
-      </c>
-      <c r="B44" s="0">
-        <v>7.1793</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.618</v>
-      </c>
-      <c r="B45" s="0">
-        <v>7.179</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.6563</v>
-      </c>
-      <c r="B46" s="0">
-        <v>7.2145</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.6781</v>
-      </c>
-      <c r="B47" s="0">
-        <v>7.2322</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.1087</v>
-      </c>
-      <c r="B48" s="0">
-        <v>6.7354</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.1398</v>
-      </c>
-      <c r="B49" s="0">
-        <v>6.8073</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.1687</v>
-      </c>
-      <c r="B50" s="0">
-        <v>6.843</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.0673</v>
-      </c>
-      <c r="B51" s="0">
-        <v>6.5732</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0445</v>
-      </c>
-      <c r="B52" s="0">
-        <v>6.4287</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.0155</v>
-      </c>
-      <c r="B53" s="0">
-        <v>5.9764</v>
-      </c>
-    </row>
-    <row r="54"/>
+        <v>1.5757</v>
+      </c>
+    </row>
+    <row r="30"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -5153,7 +4785,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5174,453 +4806,325 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0074</v>
+        <v>0.9917</v>
       </c>
       <c r="B3" s="0">
-        <v>9.5368</v>
+        <v>12.678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0041</v>
+        <v>0.97</v>
       </c>
       <c r="B4" s="0">
-        <v>8.8022</v>
+        <v>12.4883</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0041</v>
+        <v>0.9105</v>
       </c>
       <c r="B5" s="0">
-        <v>8.3068</v>
+        <v>12.3716</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0032</v>
+        <v>0.8654</v>
       </c>
       <c r="B6" s="0">
-        <v>7.763</v>
+        <v>12.3453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0032</v>
+        <v>0.8266</v>
       </c>
       <c r="B7" s="0">
-        <v>7.2607</v>
+        <v>12.3278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0032</v>
+        <v>0.7547</v>
       </c>
       <c r="B8" s="0">
-        <v>6.7636</v>
+        <v>12.2929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0027</v>
+        <v>0.7076</v>
       </c>
       <c r="B9" s="0">
-        <v>6.2359</v>
+        <v>12.2394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0032</v>
+        <v>0.6646</v>
       </c>
       <c r="B10" s="0">
-        <v>4.1357</v>
+        <v>12.2221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0014</v>
+        <v>0.6216</v>
       </c>
       <c r="B11" s="0">
-        <v>3.6181</v>
+        <v>12.2048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0032</v>
+        <v>0.5569</v>
       </c>
       <c r="B12" s="0">
-        <v>2.5446</v>
+        <v>12.1607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.003</v>
+        <v>0.5078</v>
       </c>
       <c r="B13" s="0">
-        <v>1.3191</v>
+        <v>12.1072</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0032</v>
+        <v>0.4648</v>
       </c>
       <c r="B14" s="0">
-        <v>0.4233</v>
+        <v>12.0899</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0041</v>
+        <v>0.4213</v>
       </c>
       <c r="B15" s="0">
-        <v>4.9843</v>
+        <v>12.0545</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.005</v>
+        <v>0.3577</v>
       </c>
       <c r="B16" s="0">
-        <v>1.9264</v>
+        <v>11.9741</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0248</v>
+        <v>0.3018</v>
       </c>
       <c r="B17" s="0">
-        <v>10.4989</v>
+        <v>11.9117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0485</v>
+        <v>0.2516</v>
       </c>
       <c r="B18" s="0">
-        <v>10.9849</v>
+        <v>11.8493</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0781</v>
+        <v>0.2039</v>
       </c>
       <c r="B19" s="0">
-        <v>11.2968</v>
+        <v>11.7777</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.1092</v>
+        <v>0.1817</v>
       </c>
       <c r="B20" s="0">
-        <v>11.4737</v>
+        <v>11.7237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1373</v>
+        <v>0.1579</v>
       </c>
       <c r="B21" s="0">
-        <v>11.5851</v>
+        <v>11.6698</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1679</v>
+        <v>0.1263</v>
       </c>
       <c r="B22" s="0">
-        <v>11.6708</v>
+        <v>11.5799</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1987</v>
+        <v>0.1014</v>
       </c>
       <c r="B23" s="0">
-        <v>11.7523</v>
+        <v>11.4445</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3575</v>
+        <v>0.074</v>
       </c>
       <c r="B24" s="0">
-        <v>11.9164</v>
+        <v>11.2639</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9698</v>
+        <v>0.0481</v>
       </c>
       <c r="B25" s="0">
-        <v>12.5</v>
+        <v>10.9927</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9916</v>
+        <v>0.0393</v>
       </c>
       <c r="B26" s="0">
-        <v>12.6857</v>
+        <v>10.866</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9203</v>
+        <v>0.0295</v>
       </c>
       <c r="B27" s="0">
-        <v>12.3895</v>
+        <v>10.6579</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.9617</v>
+        <v>0.0192</v>
       </c>
       <c r="B28" s="0">
-        <v>12.4612</v>
+        <v>10.3865</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8737</v>
+        <v>0.0083</v>
       </c>
       <c r="B29" s="0">
-        <v>12.3542</v>
+        <v>9.8524</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8551</v>
+        <v>0.0072</v>
       </c>
       <c r="B30" s="0">
-        <v>12.3364</v>
+        <v>9.6622</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8364</v>
+        <v>0.0052</v>
       </c>
       <c r="B31" s="0">
-        <v>12.3005</v>
+        <v>9.3815</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.764</v>
+        <v>0.0031</v>
       </c>
       <c r="B32" s="0">
-        <v>12.2656</v>
+        <v>9.1008</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7443</v>
+        <v>0.0016</v>
       </c>
       <c r="B33" s="0">
-        <v>12.2478</v>
+        <v>8.9107</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8178</v>
+        <v>0.0016</v>
       </c>
       <c r="B34" s="0">
-        <v>12.2827</v>
+        <v>8.7024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7174</v>
+        <v>0.0016</v>
       </c>
       <c r="B35" s="0">
-        <v>12.2302</v>
+        <v>8.3493</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6988</v>
+        <v>0.0021</v>
       </c>
       <c r="B36" s="0">
-        <v>12.2124</v>
+        <v>7.9689</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6729</v>
+        <v>0.0016</v>
       </c>
       <c r="B37" s="0">
-        <v>12.2129</v>
+        <v>7.5524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6542</v>
+        <v>0.001</v>
       </c>
       <c r="B38" s="0">
-        <v>12.1951</v>
+        <v>7.1358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.6139</v>
+        <v>0.0021</v>
       </c>
       <c r="B39" s="0">
-        <v>12.1596</v>
+        <v>6.7192</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.6315</v>
+        <v>0.0016</v>
       </c>
       <c r="B40" s="0">
-        <v>12.1955</v>
+        <v>6.2846</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.5663</v>
+        <v>0.0021</v>
       </c>
       <c r="B41" s="0">
-        <v>12.1243</v>
+        <v>5.0168</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.5497</v>
+        <v>0.0005</v>
       </c>
       <c r="B42" s="0">
-        <v>12.1065</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.5166</v>
-      </c>
-      <c r="B43" s="0">
-        <v>12.1071</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.4969</v>
-      </c>
-      <c r="B44" s="0">
-        <v>12.0893</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.4741</v>
-      </c>
-      <c r="B45" s="0">
-        <v>12.0535</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.4555</v>
-      </c>
-      <c r="B46" s="0">
-        <v>12.0357</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.4296</v>
-      </c>
-      <c r="B47" s="0">
-        <v>12.0181</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.412</v>
-      </c>
-      <c r="B48" s="0">
-        <v>12.0003</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.3106</v>
-      </c>
-      <c r="B49" s="0">
-        <v>11.9297</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.2919</v>
-      </c>
-      <c r="B50" s="0">
-        <v>11.8938</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.2609</v>
-      </c>
-      <c r="B51" s="0">
-        <v>11.8581</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.2443</v>
-      </c>
-      <c r="B52" s="0">
-        <v>11.8222</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.2143</v>
-      </c>
-      <c r="B53" s="0">
-        <v>11.7503</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.1832</v>
-      </c>
-      <c r="B54" s="0">
-        <v>11.7147</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.148</v>
-      </c>
-      <c r="B55" s="0">
-        <v>11.6247</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="0">
-        <v>0.0342</v>
-      </c>
-      <c r="B56" s="0">
-        <v>10.7756</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="0">
-        <v>0.0155</v>
-      </c>
-      <c r="B57" s="0">
-        <v>10.2145</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="0">
-        <v>0.0104</v>
-      </c>
-      <c r="B58" s="0">
-        <v>9.9791</v>
-      </c>
-    </row>
-    <row r="59"/>
+        <v>4.1475</v>
+      </c>
+    </row>
+    <row r="43"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 115 Activated carbon materials with/Data115_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 115 Activated carbon materials with/Data115_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1 CAC1800  0-1-0-14 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1 CAC1900  0-1-0-14 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1 CAC3800  0-1-0-14 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1 CAC6800  0-1-0-14 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1 CAC1800  0&amp;1&amp;0&amp;14 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 CAC1900  0&amp;1&amp;0&amp;14 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1 CAC3800  0&amp;1&amp;0&amp;14 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1 CAC6800  0&amp;1&amp;0&amp;14 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC1800  0-1-0-14 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CAC1800  0&amp;1&amp;0&amp;14 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC1800  0-1-0-14 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CAC1800  0&amp;1&amp;0&amp;14 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC1900  0-1-0-14 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CAC1900  0&amp;1&amp;0&amp;14 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC1900  0-1-0-14 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CAC1900  0&amp;1&amp;0&amp;14 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC3800  0-1-0-14 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CAC3800  0&amp;1&amp;0&amp;14 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC3800  0-1-0-14 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CAC3800  0&amp;1&amp;0&amp;14 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC6800  0-1-0-14 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1 CAC6800  0&amp;1&amp;0&amp;14 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1 CAC6800  0-1-0-14 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1 CAC6800  0&amp;1&amp;0&amp;14 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
